--- a/data/trans_camb/P13A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P13A_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,22 +632,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>0,91</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,79</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-90,17</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-88,31</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-92,9</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-82,75</t>
+          <t>0,62</t>
         </is>
       </c>
     </row>
@@ -1127,37 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 1,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 1,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 2,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 0,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 0,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 3,2</t>
         </is>
       </c>
     </row>
@@ -1180,37 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-90,17%</t>
+          <t>-5,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-88,31%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-92,9%</t>
+          <t>-4,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-82,75%</t>
+          <t>129,23%</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-31,12</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-71,16</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-82,11</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-31,12</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-69,21</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-80,61</t>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 6,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 3,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 3,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 2,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 2,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 2,97</t>
         </is>
       </c>
     </row>
@@ -1386,17 +1386,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-31,12%</t>
+          <t>108,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-71,16%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-82,11%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,22 +1411,22 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-31,12%</t>
+          <t>107,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-69,21%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-80,61%</t>
+          <t>96,97%</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-17,5</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-66,02</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-29,53</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-84,82</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,2; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 11,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 10,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 0,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 4,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 4,28</t>
         </is>
       </c>
     </row>
@@ -1617,17 +1617,17 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>128,52%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-66,02%</t>
+          <t>123,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1637,12 +1637,12 @@
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-29,53%</t>
+          <t>122,29%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-84,82%</t>
+          <t>124,49%</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,11</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,89</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,88</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-57,73</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-90,94</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-89,6</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-13,94</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-14,09</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-20,54</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-11,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-27,24</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-31,69</t>
+          <t>0,65</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 1,38</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 0,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-58,24; 50,02</t>
+          <t>-1,25; 0,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-63,96; 19,91</t>
+          <t>-0,62; 1,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 11,81</t>
+          <t>-0,36; 1,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-60,02; 39,21</t>
+          <t>-0,53; 0,58</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-67,13; 12,95</t>
+          <t>-0,43; 0,78</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-71,89; 1,74</t>
+          <t>-0,06; 1,54</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-57,73%</t>
+          <t>100,53%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-90,94%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-89,6%</t>
+          <t>215,78%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-42,81%</t>
+          <t>-53,52%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-43,28%</t>
+          <t>58,03%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-63,09%</t>
+          <t>171,69%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-26,51%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-63,48%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-73,83%</t>
+          <t>185,53%</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-91,12; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-90,29; —</t>
+          <t>-75,8; —</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2122,12 +2122,19 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-87,39; 132,24</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-89,81; 13,17</t>
+          <t>-39,21; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
